--- a/testcase/testcase.xlsx
+++ b/testcase/testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,22 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://api.apiopen.top/getSongPoetry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取宋词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code=200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getSongPoetry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BODY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,13 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "page":1,
- "count":20 
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TESTCASEID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +103,41 @@
   </si>
   <si>
     <t>SUMMARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>http://v.juhe.cn/offset/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lng=116.3974965092&amp;lat=39.908700982285396&amp;type=1&amp;dtype=&amp;callback=&amp;key=a2a33e014d5318409c6032cacfecadba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图坐标服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocationService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocationService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lng=116.3974965092&amp;lat=39.908700982285396&amp;type=1&amp;dtype=&amp;callback=&amp;key=a2a33e014d5318409c6032cacfecadba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_code=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,13 +583,13 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -599,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -613,16 +621,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -712,17 +720,17 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
@@ -733,25 +741,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -760,47 +768,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="54">
+    <row r="2" spans="1:10" ht="121.5">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:10" ht="121.5">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -810,9 +828,9 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -822,9 +840,9 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -902,7 +920,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -912,31 +930,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/testcase/testcase.xlsx
+++ b/testcase/testcase.xlsx
@@ -12,11 +12,12 @@
     <sheet name="RESULT" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,94 +51,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BODY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESPONSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARAMETERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TESTCASEID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT EXECUTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>http://v.juhe.cn/offset/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lng=116.3974965092&amp;lat=39.908700982285396&amp;type=1&amp;dtype=&amp;callback=&amp;key=a2a33e014d5318409c6032cacfecadba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图坐标服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocationService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocationService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lng=116.3974965092&amp;lat=39.908700982285396&amp;type=1&amp;dtype=&amp;callback=&amp;key=a2a33e014d5318409c6032cacfecadba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_code=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BODY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESPONSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARAMETERS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TESTCASEID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CATEGORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT EXECUTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUMMARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>http://v.juhe.cn/offset/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lng=116.3974965092&amp;lat=39.908700982285396&amp;type=1&amp;dtype=&amp;callback=&amp;key=a2a33e014d5318409c6032cacfecadba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图坐标服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocationService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocationService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lng=116.3974965092&amp;lat=39.908700982285396&amp;type=1&amp;dtype=&amp;callback=&amp;key=a2a33e014d5318409c6032cacfecadba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>error_code=0</t>
+    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +588,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -607,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -621,19 +626,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -720,7 +725,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -741,25 +746,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -770,40 +775,40 @@
     </row>
     <row r="2" spans="1:10" ht="121.5">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="121.5">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -930,31 +935,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/testcase/testcase.xlsx
+++ b/testcase/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="REQUESTH" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="RESULT" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,35 +113,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>地图坐标服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocationService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocationService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_code=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>lng=116.3974965092&amp;lat=39.908700982285396&amp;type=1&amp;dtype=&amp;callback=&amp;key=a2a33e014d5318409c6032cacfecadba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图坐标服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocationService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocationService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lng=116.3974965092&amp;lat=39.908700982285396&amp;type=1&amp;dtype=&amp;callback=&amp;key=a2a33e014d5318409c6032cacfecadba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>error_code=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +579,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -626,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -638,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -724,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -775,40 +766,40 @@
     </row>
     <row r="2" spans="1:10" ht="121.5">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="121.5">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -924,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
